--- a/AAAGameData/Tables/Datas/#item.xlsx
+++ b/AAAGameData/Tables/Datas/#item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -77,6 +77,9 @@
     <t>array,int</t>
   </si>
   <si>
+    <t>(array#sep=,),int</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
     <t>Coin</t>
   </si>
   <si>
+    <t>1,1</t>
+  </si>
+  <si>
     <t>炸弹</t>
   </si>
   <si>
@@ -143,6 +149,9 @@
     <t>pickup_016_bomb_0</t>
   </si>
   <si>
+    <t>2,1</t>
+  </si>
+  <si>
     <t>钥匙</t>
   </si>
   <si>
@@ -150,6 +159,9 @@
   </si>
   <si>
     <t>pickup_003_key_0</t>
+  </si>
+  <si>
+    <t>3,1</t>
   </si>
   <si>
     <t>箱子</t>
@@ -1118,7 +1130,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1127,6 +1139,7 @@
     <col min="6" max="6" width="20.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="13.5714285714286" customWidth="1"/>
     <col min="8" max="8" width="12.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="16.8571428571429" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1192,66 +1205,66 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -1260,17 +1273,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1279,78 +1292,102 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:10">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:10">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:10">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:10">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="3:3">
